--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudar\store\Desktop\IGNITRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A3D65-12AB-463C-9A07-E43243AA8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644159DF-E7F6-4E2A-BA2B-07234D00B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2988" windowWidth="17280" windowHeight="9960" xr2:uid="{A14B3CFD-C29C-4461-A44C-217749FB1F6A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{A14B3CFD-C29C-4461-A44C-217749FB1F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ideathon</t>
-  </si>
-  <si>
-    <t>techexpo</t>
   </si>
   <si>
     <t>debate</t>
@@ -472,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574CE8C-6BC2-4887-B93D-ACA2EB400789}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -558,12 +555,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -575,12 +572,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -592,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudar\store\Desktop\IGNITRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644159DF-E7F6-4E2A-BA2B-07234D00B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFDF6B-7524-4EA7-BF58-2656ABBE965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{A14B3CFD-C29C-4461-A44C-217749FB1F6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A14B3CFD-C29C-4461-A44C-217749FB1F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>username</t>
   </si>
@@ -51,50 +51,305 @@
     <t>sudarshan</t>
   </si>
   <si>
-    <t>abhi</t>
-  </si>
-  <si>
-    <t>maruthi</t>
-  </si>
-  <si>
-    <t>Sudarshan@21</t>
-  </si>
-  <si>
     <t>event_name</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
     <t>Coordinator</t>
   </si>
   <si>
     <t>Judge</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>ideathon</t>
   </si>
   <si>
-    <t>debate</t>
-  </si>
-  <si>
-    <t>prajwal</t>
-  </si>
-  <si>
-    <t>sachi</t>
-  </si>
-  <si>
-    <t>esport</t>
+    <t>Maruthi S T</t>
+  </si>
+  <si>
+    <t>Abhiram Naik</t>
+  </si>
+  <si>
+    <t>Sudarshana V D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshitha H K </t>
+  </si>
+  <si>
+    <t>Shivanagowda G M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganesh C U </t>
+  </si>
+  <si>
+    <t>Rahul R Gadgimata</t>
+  </si>
+  <si>
+    <t>Kavyashree P N</t>
+  </si>
+  <si>
+    <t>Shreyanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaibhav K K </t>
+  </si>
+  <si>
+    <t>Rohit Ladwa</t>
+  </si>
+  <si>
+    <t>Zainab Q</t>
+  </si>
+  <si>
+    <t>Aruna Kumar B T</t>
+  </si>
+  <si>
+    <t>Nayana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nithin S </t>
+  </si>
+  <si>
+    <t>Yashwanth VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinidhi S Joshi </t>
+  </si>
+  <si>
+    <t>Ravitej Balekai</t>
+  </si>
+  <si>
+    <t>Shashank B A</t>
+  </si>
+  <si>
+    <t>Harish Gouda S K</t>
+  </si>
+  <si>
+    <t>Kotreshi S N</t>
+  </si>
+  <si>
+    <t>Imran Khan</t>
+  </si>
+  <si>
+    <t>Sanjana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourav Pradhan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandeep G S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumya Y </t>
+  </si>
+  <si>
+    <t>Komala</t>
+  </si>
+  <si>
+    <t>Ananya R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashwanini D S </t>
+  </si>
+  <si>
+    <t>Mudasar Pasha</t>
+  </si>
+  <si>
+    <t>Lingraju</t>
+  </si>
+  <si>
+    <t>Akashay D T</t>
+  </si>
+  <si>
+    <t>Rachitha Alegowda</t>
+  </si>
+  <si>
+    <t>Devraj  H S</t>
+  </si>
+  <si>
+    <t>Manjulla K M</t>
+  </si>
+  <si>
+    <t>Adarsh Gowda</t>
+  </si>
+  <si>
+    <t>Prajwal Jana</t>
+  </si>
+  <si>
+    <t>Sachin M P</t>
+  </si>
+  <si>
+    <t>Hackathon</t>
+  </si>
+  <si>
+    <t>Ideathon</t>
+  </si>
+  <si>
+    <t>Data-Hunt</t>
+  </si>
+  <si>
+    <t>Poster-Presentation</t>
+  </si>
+  <si>
+    <t>Tech-Expo</t>
+  </si>
+  <si>
+    <t>Psy(c)ury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourav </t>
+  </si>
+  <si>
+    <t>Sudarshan@12</t>
+  </si>
+  <si>
+    <t>Sachin@12</t>
+  </si>
+  <si>
+    <t>Prajwal@12</t>
+  </si>
+  <si>
+    <t>Adarsh@12</t>
+  </si>
+  <si>
+    <t>Manjulla@12</t>
+  </si>
+  <si>
+    <t>Devraj@12</t>
+  </si>
+  <si>
+    <t>Rachitha@12</t>
+  </si>
+  <si>
+    <t>Sooraj@12</t>
+  </si>
+  <si>
+    <t>Akashay@12</t>
+  </si>
+  <si>
+    <t>Lingraju@12</t>
+  </si>
+  <si>
+    <t>Mudasar@12</t>
+  </si>
+  <si>
+    <t>Yashwanini@12</t>
+  </si>
+  <si>
+    <t>Ananya@12</t>
+  </si>
+  <si>
+    <t>Komala@12</t>
+  </si>
+  <si>
+    <t>Soumya@12</t>
+  </si>
+  <si>
+    <t>Sandeep@12</t>
+  </si>
+  <si>
+    <t>Gourav@12</t>
+  </si>
+  <si>
+    <t>Neha@12</t>
+  </si>
+  <si>
+    <t>Sanjana@12</t>
+  </si>
+  <si>
+    <t>Imran@12</t>
+  </si>
+  <si>
+    <t>Kotreshi@12</t>
+  </si>
+  <si>
+    <t>Harish@12</t>
+  </si>
+  <si>
+    <t>Shashank@12</t>
+  </si>
+  <si>
+    <t>Sampath@12</t>
+  </si>
+  <si>
+    <t>Ravitej@12</t>
+  </si>
+  <si>
+    <t>Srinidhi@12</t>
+  </si>
+  <si>
+    <t>Yashwanth@12</t>
+  </si>
+  <si>
+    <t>Nithin@12</t>
+  </si>
+  <si>
+    <t>Nayana@12</t>
+  </si>
+  <si>
+    <t>Aruna@12</t>
+  </si>
+  <si>
+    <t>Zainab@12</t>
+  </si>
+  <si>
+    <t>Rohit@12</t>
+  </si>
+  <si>
+    <t>Vaibhav@12</t>
+  </si>
+  <si>
+    <t>Shreyanka@12</t>
+  </si>
+  <si>
+    <t>Kavyashree@12</t>
+  </si>
+  <si>
+    <t>Rahul@12</t>
+  </si>
+  <si>
+    <t>Ganesh@12</t>
+  </si>
+  <si>
+    <t>Abhiram@12</t>
+  </si>
+  <si>
+    <t>Maruthi@12</t>
+  </si>
+  <si>
+    <t>Shivanagowda@12</t>
+  </si>
+  <si>
+    <t>Harshitha@12</t>
+  </si>
+  <si>
+    <t>Sudarshana@12</t>
+  </si>
+  <si>
+    <t>Sampath Kumar</t>
+  </si>
+  <si>
+    <t>Tech-Debate</t>
+  </si>
+  <si>
+    <t>Blind-Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robo-Quest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-SPORTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sooraj V R </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +373,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -152,6 +413,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,13 +729,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574CE8C-6BC2-4887-B93D-ACA2EB400789}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -489,117 +757,785 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{788FA280-D035-49BE-89D1-CD37A9DE966F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C1CE9B1C-4937-4791-9B15-E6D81C667813}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B89CD5D8-CE2B-4C6F-9282-1EDDDF532E8A}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{118C2184-D4DD-414F-8389-85DC7D2FB8BF}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{8B943EED-8FD3-400B-A18E-5AA77F7BECE8}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{DE79294F-53A5-402D-B0F8-AD9D5D35755B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3110BD51-D19A-4AF7-8A51-0C7CEA4F5CA6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4D72F492-D4B0-46B2-B929-05996D479DB3}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5BAE1818-95AB-476F-AD4A-9975E389DE83}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{F36EFAD1-EBF7-49EE-AEB4-723317052F31}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C1C8C9AC-26D8-4EC9-B083-38842B4AC326}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{80F2BEBF-9DF7-4CDF-9979-CF6AA958FD4B}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{13021B79-3906-4ED3-A3DF-25C11491504F}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{51DA9A27-255E-4821-8871-BABA13E0579A}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{344545AD-6FCB-42CD-B2D0-D111FE6429DC}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{78BD519C-AD78-4B4E-8A73-4FEF954F7600}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9E749E50-FDAB-43BA-BF51-37B4BAC72A6D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{93005DBB-6CD4-4E47-ABFE-6530A7DEEFCA}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{94DEC36B-F95C-4C1E-9C33-313700DAE669}"/>
+    <hyperlink ref="B44" r:id="rId15" xr:uid="{AC66DACC-3EAE-43D7-B72A-EFA1129AA766}"/>
+    <hyperlink ref="B43" r:id="rId16" xr:uid="{11E467D3-0FCC-4543-A5F8-163FA7129339}"/>
+    <hyperlink ref="B42" r:id="rId17" xr:uid="{9CD82B5C-8D38-4071-9A57-C6E4AB5C7898}"/>
+    <hyperlink ref="B41" r:id="rId18" xr:uid="{2DFDB6D3-7359-40EA-B8F5-EF719761F492}"/>
+    <hyperlink ref="B40" r:id="rId19" xr:uid="{1494D9CA-55B8-4F6E-B1AC-19DB9FF171CB}"/>
+    <hyperlink ref="B39" r:id="rId20" xr:uid="{E61FFDCF-6A2F-44E1-B408-7FD8F3CFCB0D}"/>
+    <hyperlink ref="B38" r:id="rId21" xr:uid="{DB64F3C5-D3EE-475B-9BB6-924262E734D1}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{3D91352D-9132-4CAC-82B2-6CCBB891044C}"/>
+    <hyperlink ref="B36" r:id="rId23" xr:uid="{5B9C21FD-E177-4C6B-823C-D5D56E6A6617}"/>
+    <hyperlink ref="B35" r:id="rId24" xr:uid="{2E4F8983-2517-4142-BB7E-7A7EC6A93CE4}"/>
+    <hyperlink ref="B34" r:id="rId25" xr:uid="{93653510-4C48-4CAD-8967-503736E20DD2}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{EA0C6868-CAE7-4F6D-95E1-AD2E8846A4BB}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{D7E8E7DF-C2C1-4F6A-9854-721BF3A15BAD}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{59F04FD0-D098-4B0B-859F-72FB232DECB8}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{A9A2A80C-20B6-436C-90C4-05042C8C41D9}"/>
+    <hyperlink ref="B29" r:id="rId30" xr:uid="{1E273B82-9E5F-416B-B46D-4BC8FFCD0F9A}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{C440F73D-CDE2-48FA-A4DE-7A8908272B67}"/>
+    <hyperlink ref="B27" r:id="rId32" xr:uid="{7C70F869-19DE-4809-B5B8-15BA43BB7E9E}"/>
+    <hyperlink ref="B26" r:id="rId33" xr:uid="{610B5A21-48C0-445B-B25E-BFE4C6E69BC6}"/>
+    <hyperlink ref="B25" r:id="rId34" xr:uid="{583C6185-A393-4F0F-A0C7-5782CADBCBB6}"/>
+    <hyperlink ref="B24" r:id="rId35" xr:uid="{7326749A-4BF6-4945-92D3-EC08614100D6}"/>
+    <hyperlink ref="B23" r:id="rId36" xr:uid="{95E1F480-4817-4A0B-844A-440770525A82}"/>
+    <hyperlink ref="B22" r:id="rId37" xr:uid="{8FC6CE7F-0A91-4FFB-954E-94ED79C1A8E2}"/>
+    <hyperlink ref="B21" r:id="rId38" xr:uid="{79F63E4E-7063-4C1B-ABEA-D0672AADC8FB}"/>
+    <hyperlink ref="B20" r:id="rId39" xr:uid="{06CAE9B7-5F92-4518-9770-16FC301859C6}"/>
+    <hyperlink ref="B19" r:id="rId40" xr:uid="{A9A55AD7-D2BA-4D6A-B485-D0D9E758F78D}"/>
+    <hyperlink ref="B18" r:id="rId41" xr:uid="{B6D22B9D-EFE6-440D-BD00-B35FA000E048}"/>
+    <hyperlink ref="B17" r:id="rId42" xr:uid="{A334963E-B1F6-49E2-98D5-C8632627E6EF}"/>
+    <hyperlink ref="B16" r:id="rId43" xr:uid="{32CEAAAD-1AF7-4B1C-8630-C31CED767E97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudar\store\Desktop\IGNITRON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFDF6B-7524-4EA7-BF58-2656ABBE965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC2502-F6AE-45BA-83CF-A190A924F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A14B3CFD-C29C-4461-A44C-217749FB1F6A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>username</t>
   </si>
@@ -48,21 +48,12 @@
     <t>is_staff</t>
   </si>
   <si>
-    <t>sudarshan</t>
-  </si>
-  <si>
     <t>event_name</t>
   </si>
   <si>
     <t>Coordinator</t>
   </si>
   <si>
-    <t>Judge</t>
-  </si>
-  <si>
-    <t>ideathon</t>
-  </si>
-  <si>
     <t>Maruthi S T</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>Imran Khan</t>
   </si>
   <si>
-    <t>Sanjana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neha H </t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t xml:space="preserve">Soumya Y </t>
   </si>
   <si>
-    <t>Komala</t>
-  </si>
-  <si>
     <t>Ananya R</t>
   </si>
   <si>
@@ -174,15 +159,6 @@
     <t>Adarsh Gowda</t>
   </si>
   <si>
-    <t>Prajwal Jana</t>
-  </si>
-  <si>
-    <t>Sachin M P</t>
-  </si>
-  <si>
-    <t>Hackathon</t>
-  </si>
-  <si>
     <t>Ideathon</t>
   </si>
   <si>
@@ -198,18 +174,6 @@
     <t>Psy(c)ury</t>
   </si>
   <si>
-    <t xml:space="preserve">Gourav </t>
-  </si>
-  <si>
-    <t>Sudarshan@12</t>
-  </si>
-  <si>
-    <t>Sachin@12</t>
-  </si>
-  <si>
-    <t>Prajwal@12</t>
-  </si>
-  <si>
     <t>Adarsh@12</t>
   </si>
   <si>
@@ -252,9 +216,6 @@
     <t>Gourav@12</t>
   </si>
   <si>
-    <t>Neha@12</t>
-  </si>
-  <si>
     <t>Sanjana@12</t>
   </si>
   <si>
@@ -339,10 +300,22 @@
     <t xml:space="preserve">Robo-Quest </t>
   </si>
   <si>
-    <t xml:space="preserve">E-SPORTS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sooraj V R </t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourav pradhan </t>
+  </si>
+  <si>
+    <t>Sanjana N</t>
+  </si>
+  <si>
+    <t>Komala Balligavi</t>
+  </si>
+  <si>
+    <t>NehaH@12</t>
   </si>
 </sst>
 </file>
@@ -729,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574CE8C-6BC2-4887-B93D-ACA2EB400789}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,785 +730,733 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
+      <c r="E8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>52</v>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>100</v>
+      <c r="E35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>53</v>
+      <c r="E40" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>101</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{788FA280-D035-49BE-89D1-CD37A9DE966F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3110BD51-D19A-4AF7-8A51-0C7CEA4F5CA6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4D72F492-D4B0-46B2-B929-05996D479DB3}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{5BAE1818-95AB-476F-AD4A-9975E389DE83}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{F36EFAD1-EBF7-49EE-AEB4-723317052F31}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{C1C8C9AC-26D8-4EC9-B083-38842B4AC326}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{80F2BEBF-9DF7-4CDF-9979-CF6AA958FD4B}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{13021B79-3906-4ED3-A3DF-25C11491504F}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{51DA9A27-255E-4821-8871-BABA13E0579A}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{344545AD-6FCB-42CD-B2D0-D111FE6429DC}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{78BD519C-AD78-4B4E-8A73-4FEF954F7600}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{9E749E50-FDAB-43BA-BF51-37B4BAC72A6D}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{93005DBB-6CD4-4E47-ABFE-6530A7DEEFCA}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{94DEC36B-F95C-4C1E-9C33-313700DAE669}"/>
-    <hyperlink ref="B44" r:id="rId15" xr:uid="{AC66DACC-3EAE-43D7-B72A-EFA1129AA766}"/>
-    <hyperlink ref="B43" r:id="rId16" xr:uid="{11E467D3-0FCC-4543-A5F8-163FA7129339}"/>
-    <hyperlink ref="B42" r:id="rId17" xr:uid="{9CD82B5C-8D38-4071-9A57-C6E4AB5C7898}"/>
-    <hyperlink ref="B41" r:id="rId18" xr:uid="{2DFDB6D3-7359-40EA-B8F5-EF719761F492}"/>
-    <hyperlink ref="B40" r:id="rId19" xr:uid="{1494D9CA-55B8-4F6E-B1AC-19DB9FF171CB}"/>
-    <hyperlink ref="B39" r:id="rId20" xr:uid="{E61FFDCF-6A2F-44E1-B408-7FD8F3CFCB0D}"/>
-    <hyperlink ref="B38" r:id="rId21" xr:uid="{DB64F3C5-D3EE-475B-9BB6-924262E734D1}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{3D91352D-9132-4CAC-82B2-6CCBB891044C}"/>
-    <hyperlink ref="B36" r:id="rId23" xr:uid="{5B9C21FD-E177-4C6B-823C-D5D56E6A6617}"/>
-    <hyperlink ref="B35" r:id="rId24" xr:uid="{2E4F8983-2517-4142-BB7E-7A7EC6A93CE4}"/>
-    <hyperlink ref="B34" r:id="rId25" xr:uid="{93653510-4C48-4CAD-8967-503736E20DD2}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{EA0C6868-CAE7-4F6D-95E1-AD2E8846A4BB}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{D7E8E7DF-C2C1-4F6A-9854-721BF3A15BAD}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{59F04FD0-D098-4B0B-859F-72FB232DECB8}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{A9A2A80C-20B6-436C-90C4-05042C8C41D9}"/>
-    <hyperlink ref="B29" r:id="rId30" xr:uid="{1E273B82-9E5F-416B-B46D-4BC8FFCD0F9A}"/>
-    <hyperlink ref="B28" r:id="rId31" xr:uid="{C440F73D-CDE2-48FA-A4DE-7A8908272B67}"/>
-    <hyperlink ref="B27" r:id="rId32" xr:uid="{7C70F869-19DE-4809-B5B8-15BA43BB7E9E}"/>
-    <hyperlink ref="B26" r:id="rId33" xr:uid="{610B5A21-48C0-445B-B25E-BFE4C6E69BC6}"/>
-    <hyperlink ref="B25" r:id="rId34" xr:uid="{583C6185-A393-4F0F-A0C7-5782CADBCBB6}"/>
-    <hyperlink ref="B24" r:id="rId35" xr:uid="{7326749A-4BF6-4945-92D3-EC08614100D6}"/>
-    <hyperlink ref="B23" r:id="rId36" xr:uid="{95E1F480-4817-4A0B-844A-440770525A82}"/>
-    <hyperlink ref="B22" r:id="rId37" xr:uid="{8FC6CE7F-0A91-4FFB-954E-94ED79C1A8E2}"/>
-    <hyperlink ref="B21" r:id="rId38" xr:uid="{79F63E4E-7063-4C1B-ABEA-D0672AADC8FB}"/>
-    <hyperlink ref="B20" r:id="rId39" xr:uid="{06CAE9B7-5F92-4518-9770-16FC301859C6}"/>
-    <hyperlink ref="B19" r:id="rId40" xr:uid="{A9A55AD7-D2BA-4D6A-B485-D0D9E758F78D}"/>
-    <hyperlink ref="B18" r:id="rId41" xr:uid="{B6D22B9D-EFE6-440D-BD00-B35FA000E048}"/>
-    <hyperlink ref="B17" r:id="rId42" xr:uid="{A334963E-B1F6-49E2-98D5-C8632627E6EF}"/>
-    <hyperlink ref="B16" r:id="rId43" xr:uid="{32CEAAAD-1AF7-4B1C-8630-C31CED767E97}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3110BD51-D19A-4AF7-8A51-0C7CEA4F5CA6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4D72F492-D4B0-46B2-B929-05996D479DB3}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{5BAE1818-95AB-476F-AD4A-9975E389DE83}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{F36EFAD1-EBF7-49EE-AEB4-723317052F31}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C1C8C9AC-26D8-4EC9-B083-38842B4AC326}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{80F2BEBF-9DF7-4CDF-9979-CF6AA958FD4B}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{13021B79-3906-4ED3-A3DF-25C11491504F}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{51DA9A27-255E-4821-8871-BABA13E0579A}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{344545AD-6FCB-42CD-B2D0-D111FE6429DC}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{78BD519C-AD78-4B4E-8A73-4FEF954F7600}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{9E749E50-FDAB-43BA-BF51-37B4BAC72A6D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{93005DBB-6CD4-4E47-ABFE-6530A7DEEFCA}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{94DEC36B-F95C-4C1E-9C33-313700DAE669}"/>
+    <hyperlink ref="B41" r:id="rId14" xr:uid="{9CD82B5C-8D38-4071-9A57-C6E4AB5C7898}"/>
+    <hyperlink ref="B40" r:id="rId15" xr:uid="{2DFDB6D3-7359-40EA-B8F5-EF719761F492}"/>
+    <hyperlink ref="B39" r:id="rId16" xr:uid="{1494D9CA-55B8-4F6E-B1AC-19DB9FF171CB}"/>
+    <hyperlink ref="B38" r:id="rId17" xr:uid="{E61FFDCF-6A2F-44E1-B408-7FD8F3CFCB0D}"/>
+    <hyperlink ref="B37" r:id="rId18" xr:uid="{DB64F3C5-D3EE-475B-9BB6-924262E734D1}"/>
+    <hyperlink ref="B36" r:id="rId19" xr:uid="{3D91352D-9132-4CAC-82B2-6CCBB891044C}"/>
+    <hyperlink ref="B35" r:id="rId20" xr:uid="{5B9C21FD-E177-4C6B-823C-D5D56E6A6617}"/>
+    <hyperlink ref="B34" r:id="rId21" xr:uid="{2E4F8983-2517-4142-BB7E-7A7EC6A93CE4}"/>
+    <hyperlink ref="B33" r:id="rId22" xr:uid="{93653510-4C48-4CAD-8967-503736E20DD2}"/>
+    <hyperlink ref="B32" r:id="rId23" xr:uid="{EA0C6868-CAE7-4F6D-95E1-AD2E8846A4BB}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{D7E8E7DF-C2C1-4F6A-9854-721BF3A15BAD}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{59F04FD0-D098-4B0B-859F-72FB232DECB8}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{A9A2A80C-20B6-436C-90C4-05042C8C41D9}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{1E273B82-9E5F-416B-B46D-4BC8FFCD0F9A}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{C440F73D-CDE2-48FA-A4DE-7A8908272B67}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{7C70F869-19DE-4809-B5B8-15BA43BB7E9E}"/>
+    <hyperlink ref="B25" r:id="rId30" xr:uid="{610B5A21-48C0-445B-B25E-BFE4C6E69BC6}"/>
+    <hyperlink ref="B24" r:id="rId31" xr:uid="{583C6185-A393-4F0F-A0C7-5782CADBCBB6}"/>
+    <hyperlink ref="B23" r:id="rId32" xr:uid="{7326749A-4BF6-4945-92D3-EC08614100D6}"/>
+    <hyperlink ref="B22" r:id="rId33" xr:uid="{95E1F480-4817-4A0B-844A-440770525A82}"/>
+    <hyperlink ref="B21" r:id="rId34" xr:uid="{8FC6CE7F-0A91-4FFB-954E-94ED79C1A8E2}"/>
+    <hyperlink ref="B20" r:id="rId35" xr:uid="{79F63E4E-7063-4C1B-ABEA-D0672AADC8FB}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{06CAE9B7-5F92-4518-9770-16FC301859C6}"/>
+    <hyperlink ref="B18" r:id="rId37" xr:uid="{A9A55AD7-D2BA-4D6A-B485-D0D9E758F78D}"/>
+    <hyperlink ref="B17" r:id="rId38" xr:uid="{B6D22B9D-EFE6-440D-BD00-B35FA000E048}"/>
+    <hyperlink ref="B16" r:id="rId39" xr:uid="{A334963E-B1F6-49E2-98D5-C8632627E6EF}"/>
+    <hyperlink ref="B15" r:id="rId40" xr:uid="{32CEAAAD-1AF7-4B1C-8630-C31CED767E97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
